--- a/src/test/resources/TestData/AssetNameTestData.xlsx
+++ b/src/test/resources/TestData/AssetNameTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchika.Behura\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9E082-73B0-4759-B6D6-B50078A21817}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F46536-6DD7-4152-A753-089CC8C21310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="270" windowWidth="20460" windowHeight="10800" tabRatio="847" firstSheet="23" activeTab="32" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="31" activeTab="39" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -48,6 +48,11 @@
     <sheet name="ASSTHB012a" sheetId="41" r:id="rId33"/>
     <sheet name="ASSTHB012b" sheetId="44" r:id="rId34"/>
     <sheet name="testAsset" sheetId="43" r:id="rId35"/>
+    <sheet name="ASST024_1STP" sheetId="45" r:id="rId36"/>
+    <sheet name="ASST024_1A" sheetId="46" r:id="rId37"/>
+    <sheet name="ASST024_2STP" sheetId="47" r:id="rId38"/>
+    <sheet name="ASST024_2ASTP" sheetId="48" r:id="rId39"/>
+    <sheet name="Sheet5" sheetId="49" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1948,7 +1953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1269">
   <si>
     <t>Name</t>
   </si>
@@ -5608,13 +5613,160 @@
   </si>
   <si>
     <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Snum</t>
+  </si>
+  <si>
+    <t>Rnum</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AB12</t>
+  </si>
+  <si>
+    <t>12_A</t>
+  </si>
+  <si>
+    <t>AB?</t>
+  </si>
+  <si>
+    <t>1A/</t>
+  </si>
+  <si>
+    <t>2B\</t>
+  </si>
+  <si>
+    <t>12.AB</t>
+  </si>
+  <si>
+    <t>a  b  c1</t>
+  </si>
+  <si>
+    <t>2~</t>
+  </si>
+  <si>
+    <t>AB`</t>
+  </si>
+  <si>
+    <t>12!</t>
+  </si>
+  <si>
+    <t>AB@</t>
+  </si>
+  <si>
+    <t>1A#</t>
+  </si>
+  <si>
+    <t>2B$%</t>
+  </si>
+  <si>
+    <t>vb^</t>
+  </si>
+  <si>
+    <t>fg&amp;1</t>
+  </si>
+  <si>
+    <t>qw*</t>
+  </si>
+  <si>
+    <t>2w+</t>
+  </si>
+  <si>
+    <t>r5=</t>
+  </si>
+  <si>
+    <t>t6{[}]</t>
+  </si>
+  <si>
+    <t>7qw|</t>
+  </si>
+  <si>
+    <t>5r:;</t>
+  </si>
+  <si>
+    <t>aw"'&lt;,&gt;</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>12-A</t>
+  </si>
+  <si>
+    <t>AB1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>BA3</t>
+  </si>
+  <si>
+    <t>BB4</t>
+  </si>
+  <si>
+    <t>CC5</t>
+  </si>
+  <si>
+    <t>45A</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>a  b  c</t>
+  </si>
+  <si>
+    <t>q&amp;*</t>
+  </si>
+  <si>
+    <t>$#%%</t>
+  </si>
+  <si>
+    <t>1  A#</t>
+  </si>
+  <si>
+    <t>fg  1</t>
+  </si>
+  <si>
+    <t>1q</t>
+  </si>
+  <si>
+    <t>qw*()</t>
+  </si>
+  <si>
+    <t>SetupName</t>
+  </si>
+  <si>
+    <t>SensorCount</t>
+  </si>
+  <si>
+    <t>TempCount</t>
+  </si>
+  <si>
+    <t>TCSensorLabel</t>
+  </si>
+  <si>
+    <t>Qstart</t>
+  </si>
+  <si>
+    <t>ASST019STP</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5649,8 +5801,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5672,6 +5832,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5711,10 +5883,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5732,8 +5905,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12138,7 +12331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F849282-884D-43B5-AC4C-35EA751A7EE8}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19621,6 +19814,449 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF90128-5E85-4A3C-9BEB-DE447876A8FF}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B2" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>123</v>
+      </c>
+      <c r="B3" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B4" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B5" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B6" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B7" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B8" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B9" s="18">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D06728-46DC-451D-97DC-0DCBF8C96104}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B2" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B3" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B4" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B5" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B6" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B7" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B8" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B9" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B10" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B11" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B13" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B14" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B15" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B16" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B17" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B18" s="18">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{E6C3D314-ADCD-4025-B48D-1F78CD5B3223}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F885FD-1FF7-4875-B905-EA1FDA89DE03}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B3" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B4" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B5" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B6" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B7" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B8" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B9" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B10" s="13">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31752241-E35E-41F6-9BD0-F587CF664CC7}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{66C29E9B-2533-49F9-B52C-ADB68C2887B3}"/>
+    <hyperlink ref="B5" r:id="rId2" display="12!!!@" xr:uid="{4F9A5AA8-293D-4E0F-B8A8-E874EE6EA9A9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CA098D-760A-4887-9AC3-050D72D6661B}">
   <dimension ref="A1:H27"/>
@@ -20346,6 +20982,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B4D6E5-D0B5-4085-AA8C-2F4DB91423EA}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/AssetNameTestData.xlsx
+++ b/src/test/resources/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchika.Behura\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F46536-6DD7-4152-A753-089CC8C21310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155C27E-AE7D-4236-BED3-303D3B797698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="31" activeTab="39" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="32" activeTab="40" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,8 @@
     <sheet name="ASST024_1A" sheetId="46" r:id="rId37"/>
     <sheet name="ASST024_2STP" sheetId="47" r:id="rId38"/>
     <sheet name="ASST024_2ASTP" sheetId="48" r:id="rId39"/>
-    <sheet name="Sheet5" sheetId="49" r:id="rId40"/>
+    <sheet name="ASST019STP" sheetId="49" r:id="rId40"/>
+    <sheet name="ASST027STP" sheetId="50" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1953,7 +1954,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="1271">
   <si>
     <t>Name</t>
   </si>
@@ -5760,6 +5761,12 @@
   </si>
   <si>
     <t>Manual</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -5887,7 +5894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5924,6 +5931,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20989,8 +20997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B4D6E5-D0B5-4085-AA8C-2F4DB91423EA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21030,6 +21038,34 @@
       </c>
       <c r="E2" t="s">
         <v>1268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEEAC7D-06A4-4075-B7D2-CBB6553C7070}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1270</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/AssetNameTestData.xlsx
+++ b/src/test/resources/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchika.Behura\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155C27E-AE7D-4236-BED3-303D3B797698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD225B11-574C-4601-A57B-9B5C64A458D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="32" activeTab="40" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="32" activeTab="39" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -1954,7 +1954,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="1270">
   <si>
     <t>Name</t>
   </si>
@@ -5707,9 +5707,6 @@
   </si>
   <si>
     <t>BB4</t>
-  </si>
-  <si>
-    <t>CC5</t>
   </si>
   <si>
     <t>45A</t>
@@ -20073,10 +20070,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F885FD-1FF7-4875-B905-EA1FDA89DE03}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20111,54 +20108,6 @@
       </c>
       <c r="B4" s="18">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B5" s="18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B6" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B7" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B8" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B9" s="18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B10" s="13">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -20189,7 +20138,7 @@
         <v>1245</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -20197,7 +20146,7 @@
         <v>1246</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -20213,7 +20162,7 @@
         <v>1248</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -20229,12 +20178,12 @@
         <v>1250</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>1236</v>
@@ -20242,18 +20191,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>1259</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -20997,8 +20946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B4D6E5-D0B5-4085-AA8C-2F4DB91423EA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21008,36 +20957,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>1264</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
         <v>1267</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -21049,7 +20998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEEAC7D-06A4-4075-B7D2-CBB6553C7070}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -21060,12 +21009,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
